--- a/power_usage_plots/kmeans_analysis_k2_best.xlsx
+++ b/power_usage_plots/kmeans_analysis_k2_best.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L693"/>
+  <dimension ref="A1:M693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>summer_to_nonsummer_ratio</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Cluster</t>
         </is>
       </c>
@@ -536,6 +541,9 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -574,6 +582,9 @@
         <v>1509600</v>
       </c>
       <c r="L3" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -614,6 +625,9 @@
         <v>1609600</v>
       </c>
       <c r="L4" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,6 +668,9 @@
         <v>1595200</v>
       </c>
       <c r="L5" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,6 +711,9 @@
         <v>1652800</v>
       </c>
       <c r="L6" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,6 +754,9 @@
         <v>1624800</v>
       </c>
       <c r="L7" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -774,6 +797,9 @@
         <v>2014400</v>
       </c>
       <c r="L8" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,6 +840,9 @@
         <v>1824000</v>
       </c>
       <c r="L9" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -854,6 +883,9 @@
         <v>1506400</v>
       </c>
       <c r="L10" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +926,9 @@
         <v>1525600</v>
       </c>
       <c r="L11" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,6 +969,9 @@
         <v>1557600</v>
       </c>
       <c r="L12" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,6 +1012,9 @@
         <v>1553600</v>
       </c>
       <c r="L13" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1014,6 +1055,9 @@
         <v>1530400</v>
       </c>
       <c r="L14" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1054,6 +1098,9 @@
         <v>1428800</v>
       </c>
       <c r="L15" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1094,6 +1141,9 @@
         <v>1577600</v>
       </c>
       <c r="L16" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1134,6 +1184,9 @@
         <v>1535200</v>
       </c>
       <c r="L17" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,6 +1227,9 @@
         <v>1632000</v>
       </c>
       <c r="L18" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,6 +1270,9 @@
         <v>1903200</v>
       </c>
       <c r="L19" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,6 +1313,9 @@
         <v>2018400</v>
       </c>
       <c r="L20" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,6 +1356,9 @@
         <v>2019200</v>
       </c>
       <c r="L21" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1334,6 +1399,9 @@
         <v>1908800</v>
       </c>
       <c r="L22" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,6 +1442,9 @@
         <v>1606400</v>
       </c>
       <c r="L23" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1414,6 +1485,9 @@
         <v>1543200</v>
       </c>
       <c r="L24" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,6 +1528,9 @@
         <v>1562400</v>
       </c>
       <c r="L25" t="n">
+        <v>142.18</v>
+      </c>
+      <c r="M25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1496,6 +1573,9 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1534,6 +1614,9 @@
         <v>823200</v>
       </c>
       <c r="L27" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1574,6 +1657,9 @@
         <v>1115200</v>
       </c>
       <c r="L28" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,6 +1700,9 @@
         <v>1065600</v>
       </c>
       <c r="L29" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1654,6 +1743,9 @@
         <v>1113600</v>
       </c>
       <c r="L30" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,6 +1786,9 @@
         <v>1244800</v>
       </c>
       <c r="L31" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,6 +1829,9 @@
         <v>1015200</v>
       </c>
       <c r="L32" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,6 +1872,9 @@
         <v>1107200</v>
       </c>
       <c r="L33" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,6 +1915,9 @@
         <v>1083200</v>
       </c>
       <c r="L34" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1854,6 +1958,9 @@
         <v>1020800</v>
       </c>
       <c r="L35" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1894,6 +2001,9 @@
         <v>1007200</v>
       </c>
       <c r="L36" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,6 +2044,9 @@
         <v>862400</v>
       </c>
       <c r="L37" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,6 +2087,9 @@
         <v>719200</v>
       </c>
       <c r="L38" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="M38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2014,6 +2130,9 @@
         <v>727200</v>
       </c>
       <c r="L39" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,6 +2173,9 @@
         <v>868000</v>
       </c>
       <c r="L40" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2094,6 +2216,9 @@
         <v>896000</v>
       </c>
       <c r="L41" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2134,6 +2259,9 @@
         <v>1018400</v>
       </c>
       <c r="L42" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2174,6 +2302,9 @@
         <v>858400</v>
       </c>
       <c r="L43" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,6 +2345,9 @@
         <v>843200</v>
       </c>
       <c r="L44" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,6 +2388,9 @@
         <v>870400</v>
       </c>
       <c r="L45" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,6 +2431,9 @@
         <v>832800</v>
       </c>
       <c r="L46" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2334,6 +2474,9 @@
         <v>948000</v>
       </c>
       <c r="L47" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2374,6 +2517,9 @@
         <v>850400</v>
       </c>
       <c r="L48" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2414,6 +2560,9 @@
         <v>832000</v>
       </c>
       <c r="L49" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="M49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2454,6 +2603,9 @@
         <v>78500</v>
       </c>
       <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,6 +2646,9 @@
         <v>54000</v>
       </c>
       <c r="L51" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,6 +2689,9 @@
         <v>72800</v>
       </c>
       <c r="L52" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,6 +2732,9 @@
         <v>81040</v>
       </c>
       <c r="L53" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,6 +2775,9 @@
         <v>70320</v>
       </c>
       <c r="L54" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,6 +2818,9 @@
         <v>85680</v>
       </c>
       <c r="L55" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,6 +2861,9 @@
         <v>69680</v>
       </c>
       <c r="L56" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,6 +2904,9 @@
         <v>83120</v>
       </c>
       <c r="L57" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,6 +2947,9 @@
         <v>64560</v>
       </c>
       <c r="L58" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,6 +2990,9 @@
         <v>61760</v>
       </c>
       <c r="L59" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,6 +3033,9 @@
         <v>68720</v>
       </c>
       <c r="L60" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2894,6 +3076,9 @@
         <v>76560</v>
       </c>
       <c r="L61" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,6 +3119,9 @@
         <v>57920</v>
       </c>
       <c r="L62" t="n">
+        <v>105.06</v>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,6 +3162,9 @@
         <v>57600</v>
       </c>
       <c r="L63" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,6 +3205,9 @@
         <v>76160</v>
       </c>
       <c r="L64" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,6 +3248,9 @@
         <v>70720</v>
       </c>
       <c r="L65" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,6 +3291,9 @@
         <v>79600</v>
       </c>
       <c r="L66" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,6 +3334,9 @@
         <v>64160</v>
       </c>
       <c r="L67" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,6 +3377,9 @@
         <v>53040</v>
       </c>
       <c r="L68" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,6 +3420,9 @@
         <v>61440</v>
       </c>
       <c r="L69" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,6 +3463,9 @@
         <v>51440</v>
       </c>
       <c r="L70" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,6 +3506,9 @@
         <v>56320</v>
       </c>
       <c r="L71" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,6 +3549,9 @@
         <v>55600</v>
       </c>
       <c r="L72" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,6 +3592,9 @@
         <v>58880</v>
       </c>
       <c r="L73" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,6 +3635,9 @@
         <v>16640</v>
       </c>
       <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,6 +3678,9 @@
         <v>13360</v>
       </c>
       <c r="L75" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,6 +3721,9 @@
         <v>21920</v>
       </c>
       <c r="L76" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,6 +3764,9 @@
         <v>26000</v>
       </c>
       <c r="L77" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,6 +3807,9 @@
         <v>32960</v>
       </c>
       <c r="L78" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,6 +3850,9 @@
         <v>32640</v>
       </c>
       <c r="L79" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,6 +3893,9 @@
         <v>30640</v>
       </c>
       <c r="L80" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,6 +3936,9 @@
         <v>33920</v>
       </c>
       <c r="L81" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,6 +3979,9 @@
         <v>30960</v>
       </c>
       <c r="L82" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,6 +4022,9 @@
         <v>24000</v>
       </c>
       <c r="L83" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,6 +4065,9 @@
         <v>22400</v>
       </c>
       <c r="L84" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,6 +4108,9 @@
         <v>23120</v>
       </c>
       <c r="L85" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,6 +4151,9 @@
         <v>14240</v>
       </c>
       <c r="L86" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,6 +4194,9 @@
         <v>22400</v>
       </c>
       <c r="L87" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,6 +4237,9 @@
         <v>30400</v>
       </c>
       <c r="L88" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,6 +4280,9 @@
         <v>20880</v>
       </c>
       <c r="L89" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,6 +4323,9 @@
         <v>28240</v>
       </c>
       <c r="L90" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,6 +4366,9 @@
         <v>23840</v>
       </c>
       <c r="L91" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,6 +4409,9 @@
         <v>29120</v>
       </c>
       <c r="L92" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,6 +4452,9 @@
         <v>31600</v>
       </c>
       <c r="L93" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,6 +4495,9 @@
         <v>28880</v>
       </c>
       <c r="L94" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,6 +4538,9 @@
         <v>36480</v>
       </c>
       <c r="L95" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,6 +4581,9 @@
         <v>35840</v>
       </c>
       <c r="L96" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,6 +4624,9 @@
         <v>40000</v>
       </c>
       <c r="L97" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4376,6 +4669,9 @@
       <c r="L98" t="n">
         <v>0</v>
       </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4414,7 +4710,10 @@
         <v>87440</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4454,7 +4753,10 @@
         <v>118160</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4494,7 +4796,10 @@
         <v>106560</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4534,7 +4839,10 @@
         <v>117760</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4574,7 +4882,10 @@
         <v>145680</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4614,7 +4925,10 @@
         <v>148160</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4654,7 +4968,10 @@
         <v>122000</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4694,7 +5011,10 @@
         <v>103600</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4734,7 +5054,10 @@
         <v>97074</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4774,7 +5097,10 @@
         <v>120320</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4814,7 +5140,10 @@
         <v>96960</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4854,7 +5183,10 @@
         <v>71200</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4894,7 +5226,10 @@
         <v>89600</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4934,7 +5269,10 @@
         <v>98000</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4974,7 +5312,10 @@
         <v>96240</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -5014,7 +5355,10 @@
         <v>114640</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5054,7 +5398,10 @@
         <v>117680</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5094,7 +5441,10 @@
         <v>121280</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -5134,7 +5484,10 @@
         <v>122800</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5174,7 +5527,10 @@
         <v>109120</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5214,7 +5570,10 @@
         <v>111760</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5254,7 +5613,10 @@
         <v>98560</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5294,7 +5656,10 @@
         <v>95600</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>137.87</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -5336,6 +5701,9 @@
       <c r="L122" t="n">
         <v>0</v>
       </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5376,6 +5744,9 @@
       <c r="L123" t="n">
         <v>0</v>
       </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5414,7 +5785,10 @@
         <v>190560</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5454,7 +5828,10 @@
         <v>243520</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5494,7 +5871,10 @@
         <v>177200</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5534,7 +5914,10 @@
         <v>283280</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5574,7 +5957,10 @@
         <v>279120</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5614,7 +6000,10 @@
         <v>243120</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -5654,7 +6043,10 @@
         <v>283360</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5694,7 +6086,10 @@
         <v>256640</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5734,7 +6129,10 @@
         <v>239680</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5774,7 +6172,10 @@
         <v>249360</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5814,7 +6215,10 @@
         <v>220000</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5854,7 +6258,10 @@
         <v>104640</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>127.24</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5894,7 +6301,10 @@
         <v>176160</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5934,7 +6344,10 @@
         <v>244320</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5974,7 +6387,10 @@
         <v>163040</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -6014,7 +6430,10 @@
         <v>245360</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -6054,7 +6473,10 @@
         <v>208880</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6094,7 +6516,10 @@
         <v>195840</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -6134,7 +6559,10 @@
         <v>246080</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -6174,7 +6602,10 @@
         <v>230800</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -6214,7 +6645,10 @@
         <v>241600</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -6254,7 +6688,10 @@
         <v>229760</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6294,7 +6731,10 @@
         <v>182960</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>133.71</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -6334,7 +6774,10 @@
         <v>2055200</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -6374,7 +6817,10 @@
         <v>1605600</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -6414,7 +6860,10 @@
         <v>2294400</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -6454,7 +6903,10 @@
         <v>1912000</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -6494,7 +6946,10 @@
         <v>1862400</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -6534,7 +6989,10 @@
         <v>2089600</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6574,7 +7032,10 @@
         <v>2292800</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -6614,7 +7075,10 @@
         <v>2296800</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -6654,7 +7118,10 @@
         <v>2072000</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -6694,7 +7161,10 @@
         <v>1970400</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -6734,7 +7204,10 @@
         <v>1879200</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6774,7 +7247,10 @@
         <v>1516800</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>111.73</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6814,7 +7290,10 @@
         <v>1076000</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6854,7 +7333,10 @@
         <v>1284800</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6894,7 +7376,10 @@
         <v>1568800</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6934,7 +7419,10 @@
         <v>1355500</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6974,7 +7462,10 @@
         <v>1807200</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -7014,7 +7505,10 @@
         <v>1771200</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -7054,7 +7548,10 @@
         <v>1760800</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -7094,7 +7591,10 @@
         <v>1968000</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -7134,7 +7634,10 @@
         <v>1844800</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -7174,7 +7677,10 @@
         <v>1672800</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -7214,7 +7720,10 @@
         <v>1630400</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -7254,7 +7763,10 @@
         <v>1429600</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>129.71</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -7294,7 +7806,10 @@
         <v>1610400</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -7334,7 +7849,10 @@
         <v>1298400</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -7374,7 +7892,10 @@
         <v>1851200</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -7414,7 +7935,10 @@
         <v>1712000</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -7454,7 +7978,10 @@
         <v>1766400</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -7494,7 +8021,10 @@
         <v>1820800</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -7534,7 +8064,10 @@
         <v>2009600</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -7574,7 +8107,10 @@
         <v>2024000</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7614,7 +8150,10 @@
         <v>1764000</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -7654,7 +8193,10 @@
         <v>1637600</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -7694,7 +8236,10 @@
         <v>1574400</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -7734,7 +8279,10 @@
         <v>1334400</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>117.5</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7774,7 +8322,10 @@
         <v>922400</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7814,7 +8365,10 @@
         <v>1196000</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -7854,7 +8408,10 @@
         <v>1415200</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -7894,7 +8451,10 @@
         <v>1300800</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -7934,7 +8494,10 @@
         <v>1569600</v>
       </c>
       <c r="L187" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -7974,7 +8537,10 @@
         <v>1609600</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -8014,7 +8580,10 @@
         <v>1545600</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -8054,7 +8623,10 @@
         <v>1744000</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -8094,7 +8666,10 @@
         <v>1547200</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -8134,7 +8709,10 @@
         <v>1360800</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -8174,7 +8752,10 @@
         <v>1342400</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -8214,7 +8795,10 @@
         <v>1289600</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>125.59</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -8254,7 +8838,10 @@
         <v>2868800</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -8294,7 +8881,10 @@
         <v>4388800</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -8334,7 +8924,10 @@
         <v>3808000</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -8374,7 +8967,10 @@
         <v>3982400</v>
       </c>
       <c r="L198" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -8414,7 +9010,10 @@
         <v>4313600</v>
       </c>
       <c r="L199" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -8454,7 +9053,10 @@
         <v>4705600</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -8494,7 +9096,10 @@
         <v>4800000</v>
       </c>
       <c r="L201" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -8534,7 +9139,10 @@
         <v>4057600</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -8574,7 +9182,10 @@
         <v>3414400</v>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -8614,7 +9225,10 @@
         <v>3236800</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -8654,7 +9268,10 @@
         <v>2590400</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>149.61</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -8694,7 +9311,10 @@
         <v>1955200</v>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -8734,7 +9354,10 @@
         <v>2619200</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -8774,7 +9397,10 @@
         <v>2785600</v>
       </c>
       <c r="L208" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -8814,7 +9440,10 @@
         <v>2051200</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -8854,7 +9483,10 @@
         <v>2049600</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -8894,7 +9526,10 @@
         <v>1342400</v>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -8934,7 +9569,10 @@
         <v>1206400</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -8974,7 +9612,10 @@
         <v>1456000</v>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -9014,7 +9655,10 @@
         <v>1232000</v>
       </c>
       <c r="L214" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -9054,7 +9698,10 @@
         <v>1006400</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -9094,7 +9741,10 @@
         <v>1182400</v>
       </c>
       <c r="L216" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -9134,7 +9784,10 @@
         <v>1185600</v>
       </c>
       <c r="L217" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -9174,7 +9827,10 @@
         <v>2723200</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -9214,7 +9870,10 @@
         <v>2172800</v>
       </c>
       <c r="L219" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -9254,7 +9913,10 @@
         <v>3127200</v>
       </c>
       <c r="L220" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -9294,7 +9956,10 @@
         <v>2765600</v>
       </c>
       <c r="L221" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -9334,7 +9999,10 @@
         <v>2782400</v>
       </c>
       <c r="L222" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -9374,7 +10042,10 @@
         <v>2929600</v>
       </c>
       <c r="L223" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -9414,7 +10085,10 @@
         <v>3298400</v>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -9454,7 +10128,10 @@
         <v>3332000</v>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -9494,7 +10171,10 @@
         <v>2777600</v>
       </c>
       <c r="L226" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -9534,7 +10214,10 @@
         <v>2492400</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -9574,7 +10257,10 @@
         <v>2469600</v>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -9614,7 +10300,10 @@
         <v>2157600</v>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>114.25</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -9654,7 +10343,10 @@
         <v>1552800</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -9694,7 +10386,10 @@
         <v>1800000</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -9734,7 +10429,10 @@
         <v>2401600</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -9774,7 +10472,10 @@
         <v>2172000</v>
       </c>
       <c r="L233" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -9814,7 +10515,10 @@
         <v>2838400</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -9854,7 +10558,10 @@
         <v>2700000</v>
       </c>
       <c r="L235" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -9894,7 +10601,10 @@
         <v>2600000</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -9934,7 +10644,10 @@
         <v>2917600</v>
       </c>
       <c r="L237" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -9974,7 +10687,10 @@
         <v>2472000</v>
       </c>
       <c r="L238" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -10014,7 +10730,10 @@
         <v>2284000</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -10054,7 +10773,10 @@
         <v>2500800</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -10094,7 +10816,10 @@
         <v>2459200</v>
       </c>
       <c r="L241" t="n">
-        <v>0</v>
+        <v>122.7</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -10134,6 +10859,9 @@
         <v>748400</v>
       </c>
       <c r="L242" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10174,6 +10902,9 @@
         <v>707600</v>
       </c>
       <c r="L243" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10214,6 +10945,9 @@
         <v>936000</v>
       </c>
       <c r="L244" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10254,6 +10988,9 @@
         <v>901200</v>
       </c>
       <c r="L245" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10294,6 +11031,9 @@
         <v>929600</v>
       </c>
       <c r="L246" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10334,6 +11074,9 @@
         <v>1108000</v>
       </c>
       <c r="L247" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10374,6 +11117,9 @@
         <v>1220800</v>
       </c>
       <c r="L248" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10414,6 +11160,9 @@
         <v>1277600</v>
       </c>
       <c r="L249" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10454,6 +11203,9 @@
         <v>1135600</v>
       </c>
       <c r="L250" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10494,6 +11246,9 @@
         <v>1240800</v>
       </c>
       <c r="L251" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10534,6 +11289,9 @@
         <v>1120800</v>
       </c>
       <c r="L252" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10574,6 +11332,9 @@
         <v>917600</v>
       </c>
       <c r="L253" t="n">
+        <v>129.65</v>
+      </c>
+      <c r="M253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10614,6 +11375,9 @@
         <v>782000</v>
       </c>
       <c r="L254" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10654,6 +11418,9 @@
         <v>758400</v>
       </c>
       <c r="L255" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10694,6 +11461,9 @@
         <v>863200</v>
       </c>
       <c r="L256" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10734,6 +11504,9 @@
         <v>761600</v>
       </c>
       <c r="L257" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10774,6 +11547,9 @@
         <v>866800</v>
       </c>
       <c r="L258" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10814,6 +11590,9 @@
         <v>972800</v>
       </c>
       <c r="L259" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10854,6 +11633,9 @@
         <v>1086800</v>
       </c>
       <c r="L260" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10894,6 +11676,9 @@
         <v>1169200</v>
       </c>
       <c r="L261" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10934,6 +11719,9 @@
         <v>1113200</v>
       </c>
       <c r="L262" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10974,6 +11762,9 @@
         <v>1110400</v>
       </c>
       <c r="L263" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11014,6 +11805,9 @@
         <v>962800</v>
       </c>
       <c r="L264" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11054,6 +11848,9 @@
         <v>795200</v>
       </c>
       <c r="L265" t="n">
+        <v>128.36</v>
+      </c>
+      <c r="M265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11096,6 +11893,9 @@
       <c r="L266" t="n">
         <v>0</v>
       </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -11136,6 +11936,9 @@
       <c r="L267" t="n">
         <v>0</v>
       </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -11174,6 +11977,9 @@
         <v>1026400</v>
       </c>
       <c r="L268" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11214,6 +12020,9 @@
         <v>1228000</v>
       </c>
       <c r="L269" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11254,6 +12063,9 @@
         <v>1152800</v>
       </c>
       <c r="L270" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11294,6 +12106,9 @@
         <v>1303200</v>
       </c>
       <c r="L271" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11334,6 +12149,9 @@
         <v>1350800</v>
       </c>
       <c r="L272" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11374,6 +12192,9 @@
         <v>1412400</v>
       </c>
       <c r="L273" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11414,6 +12235,9 @@
         <v>1384400</v>
       </c>
       <c r="L274" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11454,6 +12278,9 @@
         <v>1266400</v>
       </c>
       <c r="L275" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11494,6 +12321,9 @@
         <v>1150400</v>
       </c>
       <c r="L276" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11534,6 +12364,9 @@
         <v>997200</v>
       </c>
       <c r="L277" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11574,6 +12407,9 @@
         <v>1028000</v>
       </c>
       <c r="L278" t="n">
+        <v>131.77</v>
+      </c>
+      <c r="M278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11614,6 +12450,9 @@
         <v>59600</v>
       </c>
       <c r="L279" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11654,6 +12493,9 @@
         <v>51120</v>
       </c>
       <c r="L280" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11694,6 +12536,9 @@
         <v>66240</v>
       </c>
       <c r="L281" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11734,6 +12579,9 @@
         <v>58960</v>
       </c>
       <c r="L282" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11774,6 +12622,9 @@
         <v>61360</v>
       </c>
       <c r="L283" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11814,6 +12665,9 @@
         <v>66160</v>
       </c>
       <c r="L284" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11854,6 +12708,9 @@
         <v>66160</v>
       </c>
       <c r="L285" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11894,6 +12751,9 @@
         <v>74000</v>
       </c>
       <c r="L286" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11934,6 +12794,9 @@
         <v>63200</v>
       </c>
       <c r="L287" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11974,6 +12837,9 @@
         <v>63120</v>
       </c>
       <c r="L288" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12014,6 +12880,9 @@
         <v>74640</v>
       </c>
       <c r="L289" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12054,6 +12923,9 @@
         <v>65901</v>
       </c>
       <c r="L290" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="M290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12094,6 +12966,9 @@
         <v>53840</v>
       </c>
       <c r="L291" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12134,6 +13009,9 @@
         <v>82000</v>
       </c>
       <c r="L292" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12174,6 +13052,9 @@
         <v>102800</v>
       </c>
       <c r="L293" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12214,6 +13095,9 @@
         <v>111360</v>
       </c>
       <c r="L294" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12254,6 +13138,9 @@
         <v>127916</v>
       </c>
       <c r="L295" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12294,6 +13181,9 @@
         <v>142080</v>
       </c>
       <c r="L296" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12334,6 +13224,9 @@
         <v>166080</v>
       </c>
       <c r="L297" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12374,6 +13267,9 @@
         <v>179760</v>
       </c>
       <c r="L298" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12414,6 +13310,9 @@
         <v>164640</v>
       </c>
       <c r="L299" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12454,6 +13353,9 @@
         <v>155920</v>
       </c>
       <c r="L300" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12494,6 +13396,9 @@
         <v>164480</v>
       </c>
       <c r="L301" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12534,6 +13439,9 @@
         <v>262969</v>
       </c>
       <c r="L302" t="n">
+        <v>120.44</v>
+      </c>
+      <c r="M302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12574,6 +13482,9 @@
         <v>362400</v>
       </c>
       <c r="L303" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12614,6 +13525,9 @@
         <v>320200</v>
       </c>
       <c r="L304" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12654,6 +13568,9 @@
         <v>418000</v>
       </c>
       <c r="L305" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12694,6 +13611,9 @@
         <v>375200</v>
       </c>
       <c r="L306" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12734,6 +13654,9 @@
         <v>394000</v>
       </c>
       <c r="L307" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12774,6 +13697,9 @@
         <v>493200</v>
       </c>
       <c r="L308" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12814,6 +13740,9 @@
         <v>535800</v>
       </c>
       <c r="L309" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12854,6 +13783,9 @@
         <v>556200</v>
       </c>
       <c r="L310" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12894,6 +13826,9 @@
         <v>494400</v>
       </c>
       <c r="L311" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12934,6 +13869,9 @@
         <v>471200</v>
       </c>
       <c r="L312" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12974,6 +13912,9 @@
         <v>474800</v>
       </c>
       <c r="L313" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13014,6 +13955,9 @@
         <v>383800</v>
       </c>
       <c r="L314" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13054,6 +13998,9 @@
         <v>311200</v>
       </c>
       <c r="L315" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13094,6 +14041,9 @@
         <v>321400</v>
       </c>
       <c r="L316" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13134,6 +14084,9 @@
         <v>382400</v>
       </c>
       <c r="L317" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13174,6 +14127,9 @@
         <v>395600</v>
       </c>
       <c r="L318" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13214,6 +14170,9 @@
         <v>463600</v>
       </c>
       <c r="L319" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13254,6 +14213,9 @@
         <v>501200</v>
       </c>
       <c r="L320" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13294,6 +14256,9 @@
         <v>533400</v>
       </c>
       <c r="L321" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13334,6 +14299,9 @@
         <v>536000</v>
       </c>
       <c r="L322" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13374,6 +14342,9 @@
         <v>444000</v>
       </c>
       <c r="L323" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13414,6 +14385,9 @@
         <v>403400</v>
       </c>
       <c r="L324" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13454,6 +14428,9 @@
         <v>366800</v>
       </c>
       <c r="L325" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13494,6 +14471,9 @@
         <v>245000</v>
       </c>
       <c r="L326" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="M326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13534,7 +14514,10 @@
         <v>1324358</v>
       </c>
       <c r="L327" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M327" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -13574,7 +14557,10 @@
         <v>776600</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M328" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -13614,7 +14600,10 @@
         <v>1035200</v>
       </c>
       <c r="L329" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -13654,7 +14643,10 @@
         <v>980400</v>
       </c>
       <c r="L330" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -13694,7 +14686,10 @@
         <v>1097400</v>
       </c>
       <c r="L331" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -13734,7 +14729,10 @@
         <v>1096600</v>
       </c>
       <c r="L332" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -13774,7 +14772,10 @@
         <v>980800</v>
       </c>
       <c r="L333" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -13814,7 +14815,10 @@
         <v>1461600</v>
       </c>
       <c r="L334" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -13854,7 +14858,10 @@
         <v>1286400</v>
       </c>
       <c r="L335" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -13894,7 +14901,10 @@
         <v>1235200</v>
       </c>
       <c r="L336" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M336" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -13934,7 +14944,10 @@
         <v>1308000</v>
       </c>
       <c r="L337" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -13974,7 +14987,10 @@
         <v>1240000</v>
       </c>
       <c r="L338" t="n">
-        <v>0</v>
+        <v>107.4</v>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -14014,7 +15030,10 @@
         <v>960800</v>
       </c>
       <c r="L339" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -14054,7 +15073,10 @@
         <v>1067200</v>
       </c>
       <c r="L340" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M340" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -14094,7 +15116,10 @@
         <v>1308000</v>
       </c>
       <c r="L341" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -14134,7 +15159,10 @@
         <v>1142400</v>
       </c>
       <c r="L342" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -14174,7 +15202,10 @@
         <v>1364800</v>
       </c>
       <c r="L343" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -14214,7 +15245,10 @@
         <v>1165600</v>
       </c>
       <c r="L344" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -14254,7 +15288,10 @@
         <v>1424000</v>
       </c>
       <c r="L345" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -14294,7 +15331,10 @@
         <v>1484000</v>
       </c>
       <c r="L346" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -14334,7 +15374,10 @@
         <v>1360000</v>
       </c>
       <c r="L347" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M347" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -14374,7 +15417,10 @@
         <v>1309600</v>
       </c>
       <c r="L348" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M348" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -14414,7 +15460,10 @@
         <v>1279200</v>
       </c>
       <c r="L349" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -14454,7 +15503,10 @@
         <v>1224000</v>
       </c>
       <c r="L350" t="n">
-        <v>0</v>
+        <v>116.13</v>
+      </c>
+      <c r="M350" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -14494,6 +15546,9 @@
         <v>11143200</v>
       </c>
       <c r="L351" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14534,6 +15589,9 @@
         <v>10572000</v>
       </c>
       <c r="L352" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M352" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14574,6 +15632,9 @@
         <v>11985600</v>
       </c>
       <c r="L353" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14614,6 +15675,9 @@
         <v>11916000</v>
       </c>
       <c r="L354" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14654,6 +15718,9 @@
         <v>11812800</v>
       </c>
       <c r="L355" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14694,6 +15761,9 @@
         <v>11877600</v>
       </c>
       <c r="L356" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14734,6 +15804,9 @@
         <v>12717600</v>
       </c>
       <c r="L357" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14774,6 +15847,9 @@
         <v>12549600</v>
       </c>
       <c r="L358" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14814,6 +15890,9 @@
         <v>11714400</v>
       </c>
       <c r="L359" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14854,6 +15933,9 @@
         <v>12002400</v>
       </c>
       <c r="L360" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14894,6 +15976,9 @@
         <v>11460000</v>
       </c>
       <c r="L361" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M361" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14934,6 +16019,9 @@
         <v>11491200</v>
       </c>
       <c r="L362" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="M362" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14974,6 +16062,9 @@
         <v>10447200</v>
       </c>
       <c r="L363" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15014,6 +16105,9 @@
         <v>9892800</v>
       </c>
       <c r="L364" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M364" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15054,6 +16148,9 @@
         <v>11570400</v>
       </c>
       <c r="L365" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15094,6 +16191,9 @@
         <v>11647200</v>
       </c>
       <c r="L366" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15134,6 +16234,9 @@
         <v>12220800</v>
       </c>
       <c r="L367" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15174,6 +16277,9 @@
         <v>12225600</v>
       </c>
       <c r="L368" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15214,6 +16320,9 @@
         <v>12859200</v>
       </c>
       <c r="L369" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15254,6 +16363,9 @@
         <v>12633600</v>
       </c>
       <c r="L370" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15294,6 +16406,9 @@
         <v>12748800</v>
       </c>
       <c r="L371" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15334,6 +16449,9 @@
         <v>13022400</v>
       </c>
       <c r="L372" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M372" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15374,6 +16492,9 @@
         <v>12439200</v>
       </c>
       <c r="L373" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M373" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15414,6 +16535,9 @@
         <v>2675200</v>
       </c>
       <c r="L374" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M374" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15454,6 +16578,9 @@
         <v>2372800</v>
       </c>
       <c r="L375" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M375" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15494,6 +16621,9 @@
         <v>2713600</v>
       </c>
       <c r="L376" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15534,6 +16664,9 @@
         <v>2700000</v>
       </c>
       <c r="L377" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15574,6 +16707,9 @@
         <v>2712800</v>
       </c>
       <c r="L378" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M378" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15614,6 +16750,9 @@
         <v>2862400</v>
       </c>
       <c r="L379" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15654,6 +16793,9 @@
         <v>3053600</v>
       </c>
       <c r="L380" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15694,6 +16836,9 @@
         <v>3071200</v>
       </c>
       <c r="L381" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15734,6 +16879,9 @@
         <v>2867200</v>
       </c>
       <c r="L382" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15774,6 +16922,9 @@
         <v>2884800</v>
       </c>
       <c r="L383" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M383" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15814,6 +16965,9 @@
         <v>2715200</v>
       </c>
       <c r="L384" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M384" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15854,6 +17008,9 @@
         <v>2754400</v>
       </c>
       <c r="L385" t="n">
+        <v>109.55</v>
+      </c>
+      <c r="M385" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15894,6 +17051,9 @@
         <v>2548800</v>
       </c>
       <c r="L386" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15934,6 +17094,9 @@
         <v>2352000</v>
       </c>
       <c r="L387" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M387" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15974,6 +17137,9 @@
         <v>2762400</v>
       </c>
       <c r="L388" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M388" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16014,6 +17180,9 @@
         <v>2688800</v>
       </c>
       <c r="L389" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M389" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16054,6 +17223,9 @@
         <v>2870400</v>
       </c>
       <c r="L390" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16094,6 +17266,9 @@
         <v>2885600</v>
       </c>
       <c r="L391" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M391" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16134,6 +17309,9 @@
         <v>3104800</v>
       </c>
       <c r="L392" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16174,6 +17352,9 @@
         <v>3120000</v>
       </c>
       <c r="L393" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16214,6 +17395,9 @@
         <v>2993600</v>
       </c>
       <c r="L394" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16254,6 +17438,9 @@
         <v>2961600</v>
       </c>
       <c r="L395" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M395" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16294,6 +17481,9 @@
         <v>2780800</v>
       </c>
       <c r="L396" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="M396" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16334,6 +17524,9 @@
         <v>324900</v>
       </c>
       <c r="L397" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16374,6 +17567,9 @@
         <v>295000</v>
       </c>
       <c r="L398" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16414,6 +17610,9 @@
         <v>356400</v>
       </c>
       <c r="L399" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16454,6 +17653,9 @@
         <v>330400</v>
       </c>
       <c r="L400" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16494,6 +17696,9 @@
         <v>358300</v>
       </c>
       <c r="L401" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16534,6 +17739,9 @@
         <v>326300</v>
       </c>
       <c r="L402" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M402" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16574,6 +17782,9 @@
         <v>374200</v>
       </c>
       <c r="L403" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16614,6 +17825,9 @@
         <v>371200</v>
       </c>
       <c r="L404" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M404" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16654,6 +17868,9 @@
         <v>343700</v>
       </c>
       <c r="L405" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16694,6 +17911,9 @@
         <v>356400</v>
       </c>
       <c r="L406" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16734,6 +17954,9 @@
         <v>360600</v>
       </c>
       <c r="L407" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16774,6 +17997,9 @@
         <v>335300</v>
       </c>
       <c r="L408" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="M408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16814,6 +18040,9 @@
         <v>273300</v>
       </c>
       <c r="L409" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16854,6 +18083,9 @@
         <v>283200</v>
       </c>
       <c r="L410" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M410" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16894,6 +18126,9 @@
         <v>343500</v>
       </c>
       <c r="L411" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16934,6 +18169,9 @@
         <v>324100</v>
       </c>
       <c r="L412" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M412" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16974,6 +18212,9 @@
         <v>335900</v>
       </c>
       <c r="L413" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17014,6 +18255,9 @@
         <v>317100</v>
       </c>
       <c r="L414" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M414" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17054,6 +18298,9 @@
         <v>323700</v>
       </c>
       <c r="L415" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17094,6 +18341,9 @@
         <v>331500</v>
       </c>
       <c r="L416" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M416" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17134,6 +18384,9 @@
         <v>319200</v>
       </c>
       <c r="L417" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M417" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17174,6 +18427,9 @@
         <v>326500</v>
       </c>
       <c r="L418" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M418" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17214,6 +18470,9 @@
         <v>314900</v>
       </c>
       <c r="L419" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M419" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17254,6 +18513,9 @@
         <v>315800</v>
       </c>
       <c r="L420" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M420" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17294,6 +18556,9 @@
         <v>1126400</v>
       </c>
       <c r="L421" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M421" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17334,6 +18599,9 @@
         <v>1010800</v>
       </c>
       <c r="L422" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M422" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17374,6 +18642,9 @@
         <v>1404000</v>
       </c>
       <c r="L423" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17414,6 +18685,9 @@
         <v>1319200</v>
       </c>
       <c r="L424" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M424" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17454,6 +18728,9 @@
         <v>1329600</v>
       </c>
       <c r="L425" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17494,6 +18771,9 @@
         <v>1266000</v>
       </c>
       <c r="L426" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M426" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17534,6 +18814,9 @@
         <v>1354800</v>
       </c>
       <c r="L427" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M427" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17574,6 +18857,9 @@
         <v>1300000</v>
       </c>
       <c r="L428" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M428" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17614,6 +18900,9 @@
         <v>1157200</v>
       </c>
       <c r="L429" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M429" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17654,6 +18943,9 @@
         <v>1147600</v>
       </c>
       <c r="L430" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M430" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17694,6 +18986,9 @@
         <v>1143600</v>
       </c>
       <c r="L431" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M431" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17734,6 +19029,9 @@
         <v>1154400</v>
       </c>
       <c r="L432" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M432" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17774,6 +19072,9 @@
         <v>1009200</v>
       </c>
       <c r="L433" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17814,6 +19115,9 @@
         <v>962000</v>
       </c>
       <c r="L434" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M434" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17854,6 +19158,9 @@
         <v>1025200</v>
       </c>
       <c r="L435" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17894,6 +19201,9 @@
         <v>863200</v>
       </c>
       <c r="L436" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M436" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17934,6 +19244,9 @@
         <v>1080800</v>
       </c>
       <c r="L437" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17974,6 +19287,9 @@
         <v>1070800</v>
       </c>
       <c r="L438" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M438" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18014,6 +19330,9 @@
         <v>1172800</v>
       </c>
       <c r="L439" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M439" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18054,6 +19373,9 @@
         <v>1314400</v>
       </c>
       <c r="L440" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M440" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18094,6 +19416,9 @@
         <v>1410000</v>
       </c>
       <c r="L441" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M441" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18134,6 +19459,9 @@
         <v>1402000</v>
       </c>
       <c r="L442" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18174,6 +19502,9 @@
         <v>1374800</v>
       </c>
       <c r="L443" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M443" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18214,6 +19545,9 @@
         <v>1250800</v>
       </c>
       <c r="L444" t="n">
+        <v>114.89</v>
+      </c>
+      <c r="M444" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18254,6 +19588,9 @@
         <v>376080</v>
       </c>
       <c r="L445" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M445" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18294,6 +19631,9 @@
         <v>309360</v>
       </c>
       <c r="L446" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M446" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18334,6 +19674,9 @@
         <v>451600</v>
       </c>
       <c r="L447" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18374,6 +19717,9 @@
         <v>406800</v>
       </c>
       <c r="L448" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18414,6 +19760,9 @@
         <v>416240</v>
       </c>
       <c r="L449" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18454,6 +19803,9 @@
         <v>448080</v>
       </c>
       <c r="L450" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M450" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18494,6 +19846,9 @@
         <v>468720</v>
       </c>
       <c r="L451" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M451" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18534,6 +19889,9 @@
         <v>485920</v>
       </c>
       <c r="L452" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M452" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18574,6 +19932,9 @@
         <v>468320</v>
       </c>
       <c r="L453" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M453" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18614,6 +19975,9 @@
         <v>462720</v>
       </c>
       <c r="L454" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M454" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18654,6 +20018,9 @@
         <v>470080</v>
       </c>
       <c r="L455" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18694,6 +20061,9 @@
         <v>391040</v>
       </c>
       <c r="L456" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="M456" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18734,6 +20104,9 @@
         <v>366160</v>
       </c>
       <c r="L457" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M457" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18774,6 +20147,9 @@
         <v>314320</v>
       </c>
       <c r="L458" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18814,6 +20190,9 @@
         <v>345280</v>
       </c>
       <c r="L459" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M459" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18854,6 +20233,9 @@
         <v>316480</v>
       </c>
       <c r="L460" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M460" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18894,6 +20276,9 @@
         <v>353680</v>
       </c>
       <c r="L461" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M461" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18934,6 +20319,9 @@
         <v>329360</v>
       </c>
       <c r="L462" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18974,6 +20362,9 @@
         <v>355200</v>
       </c>
       <c r="L463" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M463" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19014,6 +20405,9 @@
         <v>360720</v>
       </c>
       <c r="L464" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M464" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19054,6 +20448,9 @@
         <v>265040</v>
       </c>
       <c r="L465" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M465" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19094,6 +20491,9 @@
         <v>350640</v>
       </c>
       <c r="L466" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M466" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19134,6 +20534,9 @@
         <v>318400</v>
       </c>
       <c r="L467" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M467" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19174,6 +20577,9 @@
         <v>305360</v>
       </c>
       <c r="L468" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="M468" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19214,6 +20620,9 @@
         <v>1229200</v>
       </c>
       <c r="L469" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M469" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19254,6 +20663,9 @@
         <v>1136400</v>
       </c>
       <c r="L470" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M470" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19294,6 +20706,9 @@
         <v>1410800</v>
       </c>
       <c r="L471" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M471" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19334,6 +20749,9 @@
         <v>1414800</v>
       </c>
       <c r="L472" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M472" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19374,6 +20792,9 @@
         <v>1586000</v>
       </c>
       <c r="L473" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M473" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19414,6 +20835,9 @@
         <v>1646800</v>
       </c>
       <c r="L474" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M474" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19454,6 +20878,9 @@
         <v>1832400</v>
       </c>
       <c r="L475" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M475" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19494,6 +20921,9 @@
         <v>1902400</v>
       </c>
       <c r="L476" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M476" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19534,6 +20964,9 @@
         <v>1831200</v>
       </c>
       <c r="L477" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M477" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19574,6 +21007,9 @@
         <v>1909200</v>
       </c>
       <c r="L478" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M478" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19614,6 +21050,9 @@
         <v>1997200</v>
       </c>
       <c r="L479" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M479" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19654,6 +21093,9 @@
         <v>1778000</v>
       </c>
       <c r="L480" t="n">
+        <v>119.42</v>
+      </c>
+      <c r="M480" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19694,6 +21136,9 @@
         <v>1520800</v>
       </c>
       <c r="L481" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M481" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19734,6 +21179,9 @@
         <v>1537600</v>
       </c>
       <c r="L482" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M482" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19774,6 +21222,9 @@
         <v>1802749</v>
       </c>
       <c r="L483" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M483" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19814,6 +21265,9 @@
         <v>1868800</v>
       </c>
       <c r="L484" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M484" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19854,6 +21308,9 @@
         <v>2235600</v>
       </c>
       <c r="L485" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M485" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19894,6 +21351,9 @@
         <v>2168400</v>
       </c>
       <c r="L486" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M486" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19934,6 +21394,9 @@
         <v>2292000</v>
       </c>
       <c r="L487" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M487" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19974,6 +21437,9 @@
         <v>2486000</v>
       </c>
       <c r="L488" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M488" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20014,6 +21480,9 @@
         <v>2445600</v>
       </c>
       <c r="L489" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M489" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20054,6 +21523,9 @@
         <v>2444800</v>
       </c>
       <c r="L490" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M490" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20094,6 +21566,9 @@
         <v>2234800</v>
       </c>
       <c r="L491" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20134,6 +21609,9 @@
         <v>2231200</v>
       </c>
       <c r="L492" t="n">
+        <v>125.69</v>
+      </c>
+      <c r="M492" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20174,6 +21652,9 @@
         <v>2829600</v>
       </c>
       <c r="L493" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M493" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20214,6 +21695,9 @@
         <v>2525600</v>
       </c>
       <c r="L494" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M494" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20254,6 +21738,9 @@
         <v>3159200</v>
       </c>
       <c r="L495" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M495" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20294,6 +21781,9 @@
         <v>2999200</v>
       </c>
       <c r="L496" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M496" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20334,6 +21824,9 @@
         <v>3012800</v>
       </c>
       <c r="L497" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M497" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20374,6 +21867,9 @@
         <v>3147200</v>
       </c>
       <c r="L498" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M498" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20414,6 +21910,9 @@
         <v>3316800</v>
       </c>
       <c r="L499" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M499" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20454,6 +21953,9 @@
         <v>3293600</v>
       </c>
       <c r="L500" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M500" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20494,6 +21996,9 @@
         <v>3044000</v>
       </c>
       <c r="L501" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M501" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20534,6 +22039,9 @@
         <v>2960000</v>
       </c>
       <c r="L502" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M502" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20574,6 +22082,9 @@
         <v>2813600</v>
       </c>
       <c r="L503" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M503" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20614,6 +22125,9 @@
         <v>2572800</v>
       </c>
       <c r="L504" t="n">
+        <v>111.09</v>
+      </c>
+      <c r="M504" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20654,6 +22168,9 @@
         <v>2420000</v>
       </c>
       <c r="L505" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M505" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20694,6 +22211,9 @@
         <v>2496000</v>
       </c>
       <c r="L506" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M506" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20734,6 +22254,9 @@
         <v>2600800</v>
       </c>
       <c r="L507" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M507" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20774,6 +22297,9 @@
         <v>2610400</v>
       </c>
       <c r="L508" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M508" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20814,6 +22340,9 @@
         <v>2881600</v>
       </c>
       <c r="L509" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M509" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20854,6 +22383,9 @@
         <v>2994400</v>
       </c>
       <c r="L510" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M510" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20894,6 +22426,9 @@
         <v>3118400</v>
       </c>
       <c r="L511" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M511" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20934,6 +22469,9 @@
         <v>3260000</v>
       </c>
       <c r="L512" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M512" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20974,6 +22512,9 @@
         <v>3055200</v>
       </c>
       <c r="L513" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M513" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21014,6 +22555,9 @@
         <v>2955200</v>
       </c>
       <c r="L514" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M514" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21054,6 +22598,9 @@
         <v>2720000</v>
       </c>
       <c r="L515" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M515" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21094,6 +22641,9 @@
         <v>2659200</v>
       </c>
       <c r="L516" t="n">
+        <v>117.79</v>
+      </c>
+      <c r="M516" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21136,6 +22686,9 @@
       <c r="L517" t="n">
         <v>0</v>
       </c>
+      <c r="M517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -21174,6 +22727,9 @@
         <v>946000</v>
       </c>
       <c r="L518" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M518" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21214,6 +22770,9 @@
         <v>876400</v>
       </c>
       <c r="L519" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M519" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21254,6 +22813,9 @@
         <v>1505600</v>
       </c>
       <c r="L520" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M520" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21294,6 +22856,9 @@
         <v>1455600</v>
       </c>
       <c r="L521" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M521" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21334,6 +22899,9 @@
         <v>1509400</v>
       </c>
       <c r="L522" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M522" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21374,6 +22942,9 @@
         <v>1504840</v>
       </c>
       <c r="L523" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M523" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21414,6 +22985,9 @@
         <v>1589320</v>
       </c>
       <c r="L524" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M524" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21454,6 +23028,9 @@
         <v>1490160</v>
       </c>
       <c r="L525" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M525" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21494,6 +23071,9 @@
         <v>1343720</v>
       </c>
       <c r="L526" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M526" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21534,6 +23114,9 @@
         <v>1433840</v>
       </c>
       <c r="L527" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M527" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21574,6 +23157,9 @@
         <v>1291920</v>
       </c>
       <c r="L528" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M528" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21614,6 +23200,9 @@
         <v>1232680</v>
       </c>
       <c r="L529" t="n">
+        <v>121.39</v>
+      </c>
+      <c r="M529" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21654,6 +23243,9 @@
         <v>1211976</v>
       </c>
       <c r="L530" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M530" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21694,6 +23286,9 @@
         <v>1123556</v>
       </c>
       <c r="L531" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M531" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21734,6 +23329,9 @@
         <v>1296556</v>
       </c>
       <c r="L532" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M532" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21774,6 +23372,9 @@
         <v>1289584</v>
       </c>
       <c r="L533" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M533" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21814,6 +23415,9 @@
         <v>1391420</v>
       </c>
       <c r="L534" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M534" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21854,6 +23458,9 @@
         <v>1426748</v>
       </c>
       <c r="L535" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M535" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21894,6 +23501,9 @@
         <v>1497816</v>
       </c>
       <c r="L536" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M536" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21934,6 +23544,9 @@
         <v>1519536</v>
       </c>
       <c r="L537" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M537" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21974,6 +23587,9 @@
         <v>1448004</v>
       </c>
       <c r="L538" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M538" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22014,6 +23630,9 @@
         <v>1449712</v>
       </c>
       <c r="L539" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M539" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22054,6 +23673,9 @@
         <v>1320816</v>
       </c>
       <c r="L540" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="M540" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22096,6 +23718,9 @@
       <c r="L541" t="n">
         <v>0</v>
       </c>
+      <c r="M541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -22134,6 +23759,9 @@
         <v>862600</v>
       </c>
       <c r="L542" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M542" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22174,6 +23802,9 @@
         <v>733600</v>
       </c>
       <c r="L543" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M543" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22214,6 +23845,9 @@
         <v>854200</v>
       </c>
       <c r="L544" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M544" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22254,6 +23888,9 @@
         <v>844200</v>
       </c>
       <c r="L545" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M545" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22294,6 +23931,9 @@
         <v>906800</v>
       </c>
       <c r="L546" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M546" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22334,6 +23974,9 @@
         <v>943800</v>
       </c>
       <c r="L547" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M547" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22374,6 +24017,9 @@
         <v>996200</v>
       </c>
       <c r="L548" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M548" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22414,6 +24060,9 @@
         <v>967200</v>
       </c>
       <c r="L549" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M549" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22454,6 +24103,9 @@
         <v>974400</v>
       </c>
       <c r="L550" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M550" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22494,6 +24146,9 @@
         <v>1041400</v>
       </c>
       <c r="L551" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M551" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22534,6 +24189,9 @@
         <v>979200</v>
       </c>
       <c r="L552" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M552" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22574,6 +24232,9 @@
         <v>1026800</v>
       </c>
       <c r="L553" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="M553" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22614,6 +24275,9 @@
         <v>916800</v>
       </c>
       <c r="L554" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M554" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22654,6 +24318,9 @@
         <v>844400</v>
       </c>
       <c r="L555" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M555" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22694,6 +24361,9 @@
         <v>1012772</v>
       </c>
       <c r="L556" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M556" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22734,6 +24404,9 @@
         <v>995800</v>
       </c>
       <c r="L557" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M557" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22774,6 +24447,9 @@
         <v>1071200</v>
       </c>
       <c r="L558" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M558" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22814,6 +24490,9 @@
         <v>1072800</v>
       </c>
       <c r="L559" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M559" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22854,6 +24533,9 @@
         <v>1093400</v>
       </c>
       <c r="L560" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M560" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22894,6 +24576,9 @@
         <v>1119200</v>
       </c>
       <c r="L561" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M561" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22934,6 +24619,9 @@
         <v>1100000</v>
       </c>
       <c r="L562" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M562" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22974,6 +24662,9 @@
         <v>1095200</v>
       </c>
       <c r="L563" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M563" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23014,6 +24705,9 @@
         <v>1001600</v>
       </c>
       <c r="L564" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="M564" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23056,6 +24750,9 @@
       <c r="L565" t="n">
         <v>0</v>
       </c>
+      <c r="M565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -23094,7 +24791,10 @@
         <v>764000</v>
       </c>
       <c r="L566" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M566" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -23134,7 +24834,10 @@
         <v>637800</v>
       </c>
       <c r="L567" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M567" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -23174,7 +24877,10 @@
         <v>875400</v>
       </c>
       <c r="L568" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M568" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -23214,7 +24920,10 @@
         <v>817200</v>
       </c>
       <c r="L569" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M569" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -23254,7 +24963,10 @@
         <v>1090800</v>
       </c>
       <c r="L570" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M570" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -23294,7 +25006,10 @@
         <v>913200</v>
       </c>
       <c r="L571" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M571" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -23334,7 +25049,10 @@
         <v>1009000</v>
       </c>
       <c r="L572" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M572" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -23374,7 +25092,10 @@
         <v>1023000</v>
       </c>
       <c r="L573" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M573" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -23414,7 +25135,10 @@
         <v>982200</v>
       </c>
       <c r="L574" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M574" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -23454,7 +25178,10 @@
         <v>924000</v>
       </c>
       <c r="L575" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M575" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -23494,7 +25221,10 @@
         <v>893800</v>
       </c>
       <c r="L576" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M576" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -23534,7 +25264,10 @@
         <v>815200</v>
       </c>
       <c r="L577" t="n">
-        <v>0</v>
+        <v>123.71</v>
+      </c>
+      <c r="M577" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -23574,7 +25307,10 @@
         <v>646200</v>
       </c>
       <c r="L578" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M578" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -23614,7 +25350,10 @@
         <v>681200</v>
       </c>
       <c r="L579" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M579" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -23654,7 +25393,10 @@
         <v>809800</v>
       </c>
       <c r="L580" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M580" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -23694,7 +25436,10 @@
         <v>720200</v>
       </c>
       <c r="L581" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M581" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -23734,7 +25479,10 @@
         <v>908800</v>
       </c>
       <c r="L582" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M582" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -23774,7 +25522,10 @@
         <v>872400</v>
       </c>
       <c r="L583" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M583" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -23814,7 +25565,10 @@
         <v>900200</v>
       </c>
       <c r="L584" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M584" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -23854,7 +25608,10 @@
         <v>930800</v>
       </c>
       <c r="L585" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M585" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -23894,7 +25651,10 @@
         <v>855800</v>
       </c>
       <c r="L586" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -23934,7 +25694,10 @@
         <v>805200</v>
       </c>
       <c r="L587" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M587" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -23974,7 +25737,10 @@
         <v>763800</v>
       </c>
       <c r="L588" t="n">
-        <v>0</v>
+        <v>145.62</v>
+      </c>
+      <c r="M588" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -24016,6 +25782,9 @@
       <c r="L589" t="n">
         <v>0</v>
       </c>
+      <c r="M589" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -24054,7 +25823,10 @@
         <v>848800</v>
       </c>
       <c r="L590" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M590" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -24094,7 +25866,10 @@
         <v>725600</v>
       </c>
       <c r="L591" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M591" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -24134,7 +25909,10 @@
         <v>924000</v>
       </c>
       <c r="L592" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M592" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -24174,7 +25952,10 @@
         <v>936800</v>
       </c>
       <c r="L593" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M593" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -24214,7 +25995,10 @@
         <v>1048000</v>
       </c>
       <c r="L594" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M594" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -24254,7 +26038,10 @@
         <v>1120000</v>
       </c>
       <c r="L595" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -24294,7 +26081,10 @@
         <v>1148800</v>
       </c>
       <c r="L596" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M596" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -24334,7 +26124,10 @@
         <v>1138400</v>
       </c>
       <c r="L597" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M597" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -24374,7 +26167,10 @@
         <v>1072000</v>
       </c>
       <c r="L598" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M598" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -24414,7 +26210,10 @@
         <v>1030400</v>
       </c>
       <c r="L599" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M599" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -24454,7 +26253,10 @@
         <v>1011200</v>
       </c>
       <c r="L600" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M600" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -24494,7 +26296,10 @@
         <v>1050400</v>
       </c>
       <c r="L601" t="n">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M601" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -24534,7 +26339,10 @@
         <v>857600</v>
       </c>
       <c r="L602" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M602" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -24574,7 +26382,10 @@
         <v>760000</v>
       </c>
       <c r="L603" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M603" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -24614,7 +26425,10 @@
         <v>963200</v>
       </c>
       <c r="L604" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M604" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -24654,7 +26468,10 @@
         <v>857600</v>
       </c>
       <c r="L605" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M605" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -24694,7 +26511,10 @@
         <v>959200</v>
       </c>
       <c r="L606" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M606" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -24734,7 +26554,10 @@
         <v>895200</v>
       </c>
       <c r="L607" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M607" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -24774,7 +26597,10 @@
         <v>816800</v>
       </c>
       <c r="L608" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -24814,7 +26640,10 @@
         <v>792000</v>
       </c>
       <c r="L609" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M609" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -24854,7 +26683,10 @@
         <v>738400</v>
       </c>
       <c r="L610" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M610" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -24894,7 +26726,10 @@
         <v>744800</v>
       </c>
       <c r="L611" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M611" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -24934,7 +26769,10 @@
         <v>728000</v>
       </c>
       <c r="L612" t="n">
-        <v>0</v>
+        <v>118.72</v>
+      </c>
+      <c r="M612" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -24976,6 +26814,9 @@
       <c r="L613" t="n">
         <v>0</v>
       </c>
+      <c r="M613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -25014,6 +26855,9 @@
         <v>58980</v>
       </c>
       <c r="L614" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M614" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25054,6 +26898,9 @@
         <v>55200</v>
       </c>
       <c r="L615" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M615" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25094,6 +26941,9 @@
         <v>65700</v>
       </c>
       <c r="L616" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M616" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25134,6 +26984,9 @@
         <v>76020</v>
       </c>
       <c r="L617" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M617" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25174,6 +27027,9 @@
         <v>81900</v>
       </c>
       <c r="L618" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M618" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25214,6 +27070,9 @@
         <v>100080</v>
       </c>
       <c r="L619" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M619" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25254,6 +27113,9 @@
         <v>129120</v>
       </c>
       <c r="L620" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M620" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25294,6 +27156,9 @@
         <v>122100</v>
       </c>
       <c r="L621" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M621" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25334,6 +27199,9 @@
         <v>105240</v>
       </c>
       <c r="L622" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M622" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25374,6 +27242,9 @@
         <v>91200</v>
       </c>
       <c r="L623" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M623" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25414,6 +27285,9 @@
         <v>85920</v>
       </c>
       <c r="L624" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M624" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25454,6 +27328,9 @@
         <v>56040</v>
       </c>
       <c r="L625" t="n">
+        <v>158.26</v>
+      </c>
+      <c r="M625" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25494,6 +27371,9 @@
         <v>46620</v>
       </c>
       <c r="L626" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M626" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25534,6 +27414,9 @@
         <v>42720</v>
       </c>
       <c r="L627" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M627" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25574,6 +27457,9 @@
         <v>49860</v>
       </c>
       <c r="L628" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M628" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25614,6 +27500,9 @@
         <v>61080</v>
       </c>
       <c r="L629" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M629" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25654,6 +27543,9 @@
         <v>83100</v>
       </c>
       <c r="L630" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M630" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25694,6 +27586,9 @@
         <v>93600</v>
       </c>
       <c r="L631" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M631" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25734,6 +27629,9 @@
         <v>114440</v>
       </c>
       <c r="L632" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M632" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25774,6 +27672,9 @@
         <v>105420</v>
       </c>
       <c r="L633" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M633" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25814,6 +27715,9 @@
         <v>95220</v>
       </c>
       <c r="L634" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M634" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25854,6 +27758,9 @@
         <v>80760</v>
       </c>
       <c r="L635" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M635" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25894,6 +27801,9 @@
         <v>67980</v>
       </c>
       <c r="L636" t="n">
+        <v>213.43</v>
+      </c>
+      <c r="M636" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25936,6 +27846,9 @@
       <c r="L637" t="n">
         <v>0</v>
       </c>
+      <c r="M637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -25974,6 +27887,9 @@
         <v>3161600</v>
       </c>
       <c r="L638" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M638" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26014,6 +27930,9 @@
         <v>3310400</v>
       </c>
       <c r="L639" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M639" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26054,6 +27973,9 @@
         <v>3144800</v>
       </c>
       <c r="L640" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M640" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26094,6 +28016,9 @@
         <v>3278400</v>
       </c>
       <c r="L641" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M641" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26134,6 +28059,9 @@
         <v>3269600</v>
       </c>
       <c r="L642" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M642" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26174,6 +28102,9 @@
         <v>3185920</v>
       </c>
       <c r="L643" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M643" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26214,6 +28145,9 @@
         <v>3581600</v>
       </c>
       <c r="L644" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M644" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26254,6 +28188,9 @@
         <v>3360800</v>
       </c>
       <c r="L645" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M645" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26294,6 +28231,9 @@
         <v>3102800</v>
       </c>
       <c r="L646" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M646" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26334,6 +28274,9 @@
         <v>3208000</v>
       </c>
       <c r="L647" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M647" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26374,6 +28317,9 @@
         <v>3261600</v>
       </c>
       <c r="L648" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="M648" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26414,6 +28360,9 @@
         <v>3001600</v>
       </c>
       <c r="L649" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M649" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26454,6 +28403,9 @@
         <v>2819200</v>
       </c>
       <c r="L650" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M650" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26494,6 +28446,9 @@
         <v>3206400</v>
       </c>
       <c r="L651" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M651" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26534,6 +28489,9 @@
         <v>3105600</v>
       </c>
       <c r="L652" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M652" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26574,6 +28532,9 @@
         <v>3336000</v>
       </c>
       <c r="L653" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M653" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26614,6 +28575,9 @@
         <v>3273600</v>
       </c>
       <c r="L654" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M654" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26654,6 +28618,9 @@
         <v>3387200</v>
       </c>
       <c r="L655" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M655" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26694,6 +28661,9 @@
         <v>3446400</v>
       </c>
       <c r="L656" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M656" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26734,6 +28704,9 @@
         <v>3274400</v>
       </c>
       <c r="L657" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M657" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26774,6 +28747,9 @@
         <v>3294400</v>
       </c>
       <c r="L658" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M658" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26814,6 +28790,9 @@
         <v>3116800</v>
       </c>
       <c r="L659" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M659" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26854,6 +28833,9 @@
         <v>3176800</v>
       </c>
       <c r="L660" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="M660" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26896,6 +28878,9 @@
       <c r="L661" t="n">
         <v>0</v>
       </c>
+      <c r="M661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -26936,6 +28921,9 @@
       <c r="L662" t="n">
         <v>0</v>
       </c>
+      <c r="M662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -26976,6 +28964,9 @@
       <c r="L663" t="n">
         <v>0</v>
       </c>
+      <c r="M663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -27016,6 +29007,9 @@
       <c r="L664" t="n">
         <v>0</v>
       </c>
+      <c r="M664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -27056,6 +29050,9 @@
       <c r="L665" t="n">
         <v>0</v>
       </c>
+      <c r="M665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -27094,6 +29091,9 @@
         <v>756400</v>
       </c>
       <c r="L666" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M666" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27134,6 +29134,9 @@
         <v>761200</v>
       </c>
       <c r="L667" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M667" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27174,6 +29177,9 @@
         <v>900400</v>
       </c>
       <c r="L668" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M668" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27214,6 +29220,9 @@
         <v>868400</v>
       </c>
       <c r="L669" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M669" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27254,6 +29263,9 @@
         <v>969600</v>
       </c>
       <c r="L670" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M670" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27294,6 +29306,9 @@
         <v>972000</v>
       </c>
       <c r="L671" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M671" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27334,6 +29349,9 @@
         <v>994800</v>
       </c>
       <c r="L672" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M672" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27374,6 +29392,9 @@
         <v>978800</v>
       </c>
       <c r="L673" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M673" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27414,6 +29435,9 @@
         <v>906800</v>
       </c>
       <c r="L674" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M674" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27454,6 +29478,9 @@
         <v>882400</v>
       </c>
       <c r="L675" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M675" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27494,6 +29521,9 @@
         <v>866800</v>
       </c>
       <c r="L676" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M676" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27534,6 +29564,9 @@
         <v>800800</v>
       </c>
       <c r="L677" t="n">
+        <v>115.15</v>
+      </c>
+      <c r="M677" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27576,6 +29609,9 @@
       <c r="L678" t="n">
         <v>0</v>
       </c>
+      <c r="M678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -27616,6 +29652,9 @@
       <c r="L679" t="n">
         <v>0</v>
       </c>
+      <c r="M679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -27656,6 +29695,9 @@
       <c r="L680" t="n">
         <v>0</v>
       </c>
+      <c r="M680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -27696,6 +29738,9 @@
       <c r="L681" t="n">
         <v>0</v>
       </c>
+      <c r="M681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -27734,7 +29779,10 @@
         <v>213920</v>
       </c>
       <c r="L682" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M682" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -27774,7 +29822,10 @@
         <v>293440</v>
       </c>
       <c r="L683" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M683" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -27814,7 +29865,10 @@
         <v>331440</v>
       </c>
       <c r="L684" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M684" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -27854,7 +29908,10 @@
         <v>383200</v>
       </c>
       <c r="L685" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M685" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -27894,7 +29951,10 @@
         <v>379520</v>
       </c>
       <c r="L686" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M686" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -27934,7 +29994,10 @@
         <v>378400</v>
       </c>
       <c r="L687" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M687" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -27974,7 +30037,10 @@
         <v>398200</v>
       </c>
       <c r="L688" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M688" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -28014,7 +30080,10 @@
         <v>406800</v>
       </c>
       <c r="L689" t="n">
-        <v>0</v>
+        <v>245.95</v>
+      </c>
+      <c r="M689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -28056,6 +30125,9 @@
       <c r="L690" t="n">
         <v>0</v>
       </c>
+      <c r="M690" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -28096,6 +30168,9 @@
       <c r="L691" t="n">
         <v>0</v>
       </c>
+      <c r="M691" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -28136,6 +30211,9 @@
       <c r="L692" t="n">
         <v>0</v>
       </c>
+      <c r="M692" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -28175,6 +30253,9 @@
       </c>
       <c r="L693" t="n">
         <v>0</v>
+      </c>
+      <c r="M693" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -28188,7 +30269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28237,31 +30318,39 @@
           <t>summer_sat_midpeak_ratio</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>summer_to_nonsummer_ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.053095663363822</v>
+        <v>7.482887485802898</v>
       </c>
       <c r="C2" t="n">
-        <v>48.33094892169428</v>
+        <v>47.04647174982524</v>
       </c>
       <c r="D2" t="n">
-        <v>35.67408920241026</v>
+        <v>34.56789245289703</v>
       </c>
       <c r="E2" t="n">
-        <v>43.55377716848702</v>
+        <v>44.77283673611487</v>
       </c>
       <c r="F2" t="n">
-        <v>41.23276450632639</v>
+        <v>42.31581353616168</v>
       </c>
       <c r="G2" t="n">
-        <v>15.79264563126318</v>
+        <v>16.73242415945721</v>
       </c>
       <c r="H2" t="n">
-        <v>21.40201996537206</v>
+        <v>23.08128589600551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>117.921721240434</v>
       </c>
     </row>
     <row r="3">
@@ -28269,25 +30358,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.21819444444444</v>
+        <v>9.529159921962096</v>
       </c>
       <c r="C3" t="n">
-        <v>55.42029761904761</v>
+        <v>51.64665338429685</v>
       </c>
       <c r="D3" t="n">
-        <v>42.12269736842105</v>
+        <v>38.60879452854544</v>
       </c>
       <c r="E3" t="n">
-        <v>36.62978015873016</v>
+        <v>40.36177688549132</v>
       </c>
       <c r="F3" t="n">
-        <v>32.75412280701754</v>
+        <v>37.85985999823975</v>
       </c>
       <c r="G3" t="n">
-        <v>13.90335555555555</v>
+        <v>14.12771446153846</v>
       </c>
       <c r="H3" t="n">
-        <v>16.38010233918128</v>
+        <v>18.04715275773044</v>
+      </c>
+      <c r="I3" t="n">
+        <v>120.7084469342252</v>
       </c>
     </row>
   </sheetData>
@@ -28301,7 +30393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28352,6 +30444,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>summer_to_nonsummer_ratio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Cluster</t>
         </is>
       </c>
@@ -28384,6 +30481,9 @@
         <v>24.00051900584795</v>
       </c>
       <c r="I2" t="n">
+        <v>118.3508333333333</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28415,6 +30515,9 @@
         <v>22.25385233918128</v>
       </c>
       <c r="I3" t="n">
+        <v>111.76625</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28446,6 +30549,9 @@
         <v>15.53093567251462</v>
       </c>
       <c r="I4" t="n">
+        <v>126.31125</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28477,7 +30583,10 @@
         <v>15.67593567251462</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>124.7904166666667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -28508,7 +30617,10 @@
         <v>16.3437730994152</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>119.9076</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -28539,6 +30651,9 @@
         <v>18.21010233918129</v>
       </c>
       <c r="I7" t="n">
+        <v>98.235</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28570,7 +30685,10 @@
         <v>18.31843567251462</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>120.72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -28601,7 +30719,10 @@
         <v>19.38760233918129</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>121.545</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -28632,7 +30753,10 @@
         <v>18.74350368675311</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.2830434782609</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -28663,7 +30787,10 @@
         <v>18.78551900584795</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.475</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -28694,6 +30821,9 @@
         <v>22.57051900584795</v>
       </c>
       <c r="I12" t="n">
+        <v>129.005</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28725,6 +30855,9 @@
         <v>21.76869995501574</v>
       </c>
       <c r="I13" t="n">
+        <v>111.4976923076923</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28756,6 +30889,9 @@
         <v>15.39926900584795</v>
       </c>
       <c r="I14" t="n">
+        <v>112.55</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28787,6 +30923,9 @@
         <v>22.27760233918129</v>
       </c>
       <c r="I15" t="n">
+        <v>134.315</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28818,7 +30957,10 @@
         <v>18.95051900584795</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>111.765</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -28849,6 +30991,9 @@
         <v>26.0643732519705</v>
       </c>
       <c r="I17" t="n">
+        <v>119.96</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28880,6 +31025,9 @@
         <v>25.65089499110094</v>
       </c>
       <c r="I18" t="n">
+        <v>122.4726086956522</v>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28911,6 +31059,9 @@
         <v>22.26260233918129</v>
       </c>
       <c r="I19" t="n">
+        <v>105.855</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28942,6 +31093,9 @@
         <v>20.60426900584795</v>
       </c>
       <c r="I20" t="n">
+        <v>110.215</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28973,6 +31127,9 @@
         <v>22.17010233918128</v>
       </c>
       <c r="I21" t="n">
+        <v>108.41</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29004,6 +31161,9 @@
         <v>24.85385233918129</v>
       </c>
       <c r="I22" t="n">
+        <v>122.555</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29035,6 +31195,9 @@
         <v>24.16760233918129</v>
       </c>
       <c r="I23" t="n">
+        <v>114.44</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29066,6 +31229,9 @@
         <v>22.63260233918129</v>
       </c>
       <c r="I24" t="n">
+        <v>124.8158333333333</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29097,6 +31263,9 @@
         <v>23.78093567251462</v>
       </c>
       <c r="I25" t="n">
+        <v>117.92375</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29128,7 +31297,10 @@
         <v>20.00593567251462</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>128.5975</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -29159,7 +31331,10 @@
         <v>19.73135233918129</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>114.0633333333333</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -29190,6 +31365,9 @@
         <v>25.06510233918128</v>
       </c>
       <c r="I28" t="n">
+        <v>176.9520833333333</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29221,6 +31399,9 @@
         <v>21.18535505430242</v>
       </c>
       <c r="I29" t="n">
+        <v>94.85285714285715</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29252,6 +31433,9 @@
         <v>21.07297557619539</v>
       </c>
       <c r="I30" t="n">
+        <v>81.28235294117648</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29283,7 +31467,10 @@
         <v>19.53010233918129</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>163.9666666666667</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
